--- a/Question_Set2/Role-specific skills/Talent Acquisition.xlsx
+++ b/Question_Set2/Role-specific skills/Talent Acquisition.xlsx
@@ -16,23 +16,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The new diversity, equity, and inclusion (DEI) officer at your IT company has reviewed your strategic sourcing plan and asked you to attend a job fair in the next 30 days that specifically targets inclusive candidates.  Which of the following events should you attend? ', 'ques_type': 2, 'options': ['Chamber of commerce job fair ', 'Young professionals job fair ', 'Military veterans job fair ', 'University alumni job fair '], 'score': 'Military veterans job fair'}, {'title': 'You are a recruiter for a large IT company. Hiring managers have narrowed their decision to the top two candidates. One candidate says they are willing to take a lower base salary in exchange for other desired benefits. Which of the candidate’s requests are you likely to consider when negotiating an employment offer for a mid-level employee?', 'ques_type': 15, 'options': ['Relocation package. ', 'Remote work arrangement. ', 'Adding a parent to a health insurance plan. ', 'Perfect attendance bonus. ', 'Equity share in the company.'], 'score': ['Relocation package.', 'Remote work arrangement.']}, {'title': 'True or false: As a recruiting manager, you can use data analysis from surveys, recruiting reports, research studies, and industry analyses to determine the best sourcing methods for different industries, positions, and jobs.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'You are the HR specialist for a consumer goods manufacturer. You have been asked to edit a module on industrial safety topics in your day-one orientation session for newly hired employees.  Which of the following topics should you remove from your presentation?', 'ques_type': 2, 'options': ['Hazardous communication ', 'Machine lockout/tagout ', 'Infection control procedures ', 'Proper body mechanics', 'Fire extinguisher use '], 'score': 'Infection control procedures'}]</t>
+    <t>questions = [
+    {
+        "title": "The new diversity, equity, and inclusion (DEI) officer at your IT company has reviewed your strategic sourcing plan and asked you to attend a job fair in the next 30 days that specifically targets inclusive candidates.  Which of the following events should you attend?",
+        "ques_type": 2,
+        "options": [
+            "Chamber of commerce job fair ",
+            "Young professionals job fair ",
+            "Military veterans job fair ",
+            "University alumni job fair "
+        ],
+        "score": "Military veterans job fair"
+    },
+    {
+        "title": "You are a recruiter for a large IT company. Hiring managers have narrowed their decision to the top two candidates. One candidate says they are willing to take a lower base salary in exchange for other desired benefits. Which of the candidate\u2019s requests are you likely to consider when negotiating an employment offer for a mid-level employee?",
+        "ques_type": 15,
+        "options": [
+            "Relocation package. ",
+            "Remote work arrangement. ",
+            "Adding a parent to a health insurance plan. ",
+            "Perfect attendance bonus. ",
+            "Equity share in the company."
+        ],
+        "score": [
+            "Relocation package.",
+            "Remote work arrangement."
+        ]
+    },
+    {
+        "title": "True or false: As a recruiting manager, you can use data analysis from surveys, recruiting reports, research studies, and industry analyses to determine the best sourcing methods for different industries, positions, and jobs.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "You are the HR specialist for a consumer goods manufacturer. You have been asked to edit a module on industrial safety topics in your day-one orientation session for newly hired employees.  Which of the following topics should you remove from your presentation?",
+        "ques_type": 2,
+        "options": [
+            "Hazardous communication ",
+            "Machine lockout/tagout ",
+            "Infection control procedures ",
+            "Proper body mechanics",
+            "Fire extinguisher use "
+        ],
+        "score": "Infection control procedures"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +96,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +396,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
